--- a/Interfaz.xlsx
+++ b/Interfaz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Reacción" sheetId="1" r:id="rId1"/>
@@ -103,13 +103,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,495 +567,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>320</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>50.66</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>32.46</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>13.48</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>3.4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>50.4673530928129</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>32.192903616179002</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>13.748525285352001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>3.58818419609399</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>3.0338095619999901E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>49.7040913448323</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>31.151257610656302</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>14.7994945201697</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>4.3301028447325098</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.50536796089389E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>48.766247274217903</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>29.9067454845163</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>16.063053797997</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>5.2341305656972104</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>2.9822877571370799E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1">
         <v>50</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>41.900587767272903</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>22.1300159581568</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>24.254520537377601</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>11.576932237464501</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.137943499727984</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>34.678817200217999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>15.7672573460684</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>31.243745479676399</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>18.0585078039616</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.25167217007530501</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>350</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>50.66</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>32.46</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>13.48</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>3.4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>49.835490467572903</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>32.746643847126997</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>13.87214612571</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>3.5090411952589999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>3.6678364330999899E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>46.6716497096061</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>33.812164004655301</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>15.3970210377929</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>3.9417432057769002</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.17742204216864699</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>42.999342349359999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>34.974727543522299</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>17.2101617727049</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>4.4749834419710703</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.34078489244163102</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1">
         <v>50</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>24.037942993247</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>38.091877358839</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>28.243100335746899</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>8.4427952405684898</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1.18428407159839</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1">
         <v>100</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>12.406225762987599</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>35.802931950626103</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>37.297671639109502</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>12.7914488195484</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>1.7017218277281501</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>360</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>50.66</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>32.46</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>13.48</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>3.4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>49.354535674093</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>33.038786381888002</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>14.010372614441</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>3.5538064909329998</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>4.2498838644999898E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>44.469120538287697</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>35.168862077028798</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>16.017950127315999</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>4.1425257965303004</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.20154146083705199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>39.042627188635699</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>37.458055830951103</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>18.2964560227547</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>4.8246623023669004</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>0.37819865529144397</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1">
         <v>50</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>19.559797131085102</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>42.674717351261997</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>28.370251455386999</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>8.3827801197695404</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>1.01245394249626</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
         <v>100</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>10.6926589436393</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>41.273339698326801</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>35.2470637097665</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>11.4858177747358</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>1.30111987353146</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>380</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>50.66</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>32.46</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>13.48</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>3.4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>46.874306433125</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>33.730758916363001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>14.999905857008001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>3.955839649154</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>0.43918914435</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>34.563262028682203</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>37.841432509463203</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>19.957501324042202</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>5.7703755011397604</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>1.8674286366724799</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1">
         <v>10</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>23.738507404622801</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>41.412676189841797</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>24.345970408414999</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>7.3796065989170598</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>3.12323939820324</v>
       </c>
     </row>
